--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/ccs/CC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/ccs/cc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BCD47F-6BE0-AE44-BAF7-9E3CB77348A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D25D0-86C4-7644-B00B-E90CC49CE122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>Source:</t>
   </si>
@@ -883,9 +883,6 @@
   </si>
   <si>
     <t>Transportation and Storage Costs ($/tCO2)</t>
-  </si>
-  <si>
-    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1032,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1180,6 +1177,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1521,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,25 +1532,25 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="60">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1560,52 +1558,52 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="40">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="58" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1669,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A09EAE-4F9C-4AA7-B5E7-0962DD219D21}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -3163,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3569,7 +3567,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/ccs/cc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ccs/cc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D25D0-86C4-7644-B00B-E90CC49CE122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B8061B-4D1C-954B-9E8E-AD7E351BCA38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
